--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2304959.506863866</v>
+        <v>2300655.167053998</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>155.5625557110025</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>237.9688518868387</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>105.1968940261643</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>17.28688718947226</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.0979412432149</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="X5" t="n">
-        <v>109.8280576942315</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>79.42975208493814</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,28 +1056,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>235.8715405415673</v>
       </c>
       <c r="W7" t="n">
-        <v>77.90758733358204</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>280.9438239338174</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>141.3378444865355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115237</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>190.2932553761562</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>249.9185339963898</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.06308666747276</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>10.50681033068512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922651</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>25.73194049497723</v>
       </c>
       <c r="W13" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>274.0768109133912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.50276072357107</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>50.5268247623009</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>62.36981422367045</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238242</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>2.813978415464941</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>34.03048557918976</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>71.56327578339665</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>20.9284728855285</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.93832930943095</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.07046444232071</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>113.9549918517058</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695557</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>60.46574022124193</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4033,10 +4033,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799753</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799753</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="D2" t="n">
-        <v>534.7928453799753</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E2" t="n">
-        <v>534.7928453799753</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="F2" t="n">
-        <v>527.8473446307719</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799753</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799753</v>
+        <v>840.4214638411528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.4845493424988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0315200613718</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519934</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>948.5960310907071</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>948.5960310907071</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>720.4601851275206</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>720.4601851275206</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W3" t="n">
-        <v>720.4601851275206</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X3" t="n">
-        <v>720.4601851275206</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y3" t="n">
-        <v>512.6998863625668</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.9529738206666</v>
+        <v>497.2115152090751</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1037.394017794436</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.394017794436</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.394017794436</v>
+        <v>678.8599800393148</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.6014386509063</v>
+        <v>678.8599800393148</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C5" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163966</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X5" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316.5660780344868</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>956.2875633997459</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>759.4784850311835</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>759.4784850311835</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>524.3263767994407</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W6" t="n">
-        <v>524.3263767994407</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X6" t="n">
-        <v>524.3263767994407</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y6" t="n">
-        <v>316.5660780344868</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2429270008669</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2429270008669</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2429270008669</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2429270008669</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348206</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="W7" t="n">
-        <v>592.6839709746367</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="X7" t="n">
-        <v>592.6839709746367</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.8913918311066</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.899711288946</v>
+        <v>2229.499872999211</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9371943485339</v>
+        <v>1860.5373560588</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9371943485339</v>
+        <v>1502.271657452049</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9371943485339</v>
+        <v>1116.483404853805</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589264</v>
+        <v>705.4975000641973</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909976</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685568</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607428</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.07793185841</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383979</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="V8" t="n">
-        <v>1642.433866040409</v>
+        <v>2229.499872999211</v>
       </c>
       <c r="W8" t="n">
-        <v>1289.665210770295</v>
+        <v>2229.499872999211</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.665210770295</v>
+        <v>2229.499872999211</v>
       </c>
       <c r="Y8" t="n">
-        <v>1146.899711288946</v>
+        <v>2229.499872999211</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018228</v>
+        <v>298.0857543148178</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353041</v>
+        <v>592.621737748299</v>
       </c>
       <c r="M9" t="n">
-        <v>1351.191145920143</v>
+        <v>1208.393778287028</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.423193372025</v>
+        <v>1842.133061471866</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359414</v>
+        <v>2174.019871459255</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789039</v>
+        <v>2421.05522988888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342784</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751578</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750.7507030753929</v>
+        <v>461.2368923627273</v>
       </c>
       <c r="C10" t="n">
-        <v>750.7507030753929</v>
+        <v>292.3007094348204</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6340636630572</v>
+        <v>142.1840700224847</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7209700806641</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380142</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.15605541262</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.15605541262</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.15605541262</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.037681907262</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>989.3531937013751</v>
+        <v>1381.084657271475</v>
       </c>
       <c r="W10" t="n">
-        <v>978.7402539734103</v>
+        <v>1091.667487234515</v>
       </c>
       <c r="X10" t="n">
-        <v>750.7507030753929</v>
+        <v>863.6779363364972</v>
       </c>
       <c r="Y10" t="n">
-        <v>750.7507030753929</v>
+        <v>642.885357192967</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>448.1846595309963</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>943.510265746755</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373307</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263523</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356158</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>779.61433792328</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408869</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429765</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.51492517227</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.195110654903</v>
+        <v>1729.09775513531</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237292</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093762</v>
       </c>
     </row>
     <row r="14">
@@ -5260,58 +5260,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>4285.815356953929</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1883.470651306724</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.368993063877</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491255</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367897</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543966</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>336.3048548543966</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>700.7543264856228</v>
+        <v>917.5010142287011</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>748.5648313007943</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2383.963271233119</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2383.963271233119</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2164.361806256059</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1875.286579600257</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1620.602091394371</v>
+        <v>1616.556199993919</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.18492135741</v>
+        <v>1327.139029956958</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.195370459393</v>
+        <v>1099.149479058941</v>
       </c>
       <c r="Y22" t="n">
-        <v>882.4027913158625</v>
+        <v>1099.149479058941</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9565346495158</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>114.9565346495158</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6730,19 +6730,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856862</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>639.9526724577793</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>489.8360330454435</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>341.9229394630504</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>195.03299196514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159259</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7031,10 +7031,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2420.62928111327</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2237.774446768174</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2018.172981791115</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.097755135313</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.811327457202</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2045.209862480144</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.209862480144</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1790.525374274257</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7493,22 +7493,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459976</v>
+        <v>255.2581536004318</v>
       </c>
       <c r="N9" t="n">
-        <v>129.4420656356692</v>
+        <v>249.1463441538076</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348508</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>226.4057028288508</v>
       </c>
       <c r="W13" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>12.10766347585297</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>147.0213775686978</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>98.08864825591147</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.005432486451241</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.8014946027474</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>218.1071577446382</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>73.8577722395346</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>146.5858089828379</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.30478226780097</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>67.07129414993878</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982122</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580791</v>
+        <v>390680.0076580785</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101763</v>
+        <v>95270.23779101754</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608931</v>
+        <v>138058.0537608932</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768948</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176893</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176895</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26450,7 +26450,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-376792.4227279515</v>
+        <v>-376792.4227279514</v>
       </c>
       <c r="C6" t="n">
-        <v>303295.5578632415</v>
+        <v>303295.5578632417</v>
       </c>
       <c r="D6" t="n">
-        <v>-5859.60159643885</v>
+        <v>-5859.601596438501</v>
       </c>
       <c r="E6" t="n">
-        <v>-13618.95643886486</v>
+        <v>-13966.33569322196</v>
       </c>
       <c r="F6" t="n">
-        <v>494290.2756218284</v>
+        <v>493942.8963674712</v>
       </c>
       <c r="G6" t="n">
-        <v>494290.2756218281</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="H6" t="n">
-        <v>494290.2756218283</v>
+        <v>493942.8963674716</v>
       </c>
       <c r="I6" t="n">
-        <v>494290.2756218286</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="J6" t="n">
-        <v>425291.1212027145</v>
+        <v>424943.741948357</v>
       </c>
       <c r="K6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="L6" t="n">
-        <v>399020.0378308105</v>
+        <v>398672.6585764542</v>
       </c>
       <c r="M6" t="n">
-        <v>361572.2999263592</v>
+        <v>361224.9206720024</v>
       </c>
       <c r="N6" t="n">
-        <v>494290.2756218284</v>
+        <v>493942.8963674715</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218283</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.2756218283</v>
+        <v>493942.8963674711</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933047</v>
+        <v>319.6474457933042</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788908</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>199.1204859096805</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
+        <v>143.1621657402052</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>174.8653227588713</v>
-      </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>57.21613438642653</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>41.95304138603451</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>234.8507561343557</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>105.6117141458222</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.672003599508</v>
       </c>
       <c r="X5" t="n">
-        <v>259.9030429842375</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642653</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>67.72018332726063</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>16.2661027822607</v>
       </c>
       <c r="W7" t="n">
-        <v>208.6154110030089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>130.6053358544321</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.9000941695181</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.776449164531471</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.776449164529794</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>56.37087597909641</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
@@ -28067,19 +28067,19 @@
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.0161880059059</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29018,7 +29018,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
         <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,43 +31597,43 @@
         <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
         <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31676,10 +31676,10 @@
         <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
         <v>119.0394102954059</v>
@@ -31691,31 +31691,31 @@
         <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
         <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,22 +31837,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319844</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>197.7888359819415</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>62.90656844127579</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758578</v>
+        <v>186.4616124758577</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>297.5110943772537</v>
       </c>
       <c r="M9" t="n">
-        <v>640.140690085696</v>
+        <v>621.9919601401299</v>
       </c>
       <c r="N9" t="n">
-        <v>520.4364115675573</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804287</v>
+        <v>249.5306650804285</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783569</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
         <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875399</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2300655.167053998</v>
+        <v>2302415.697356783</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>155.5625557110025</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3170492634408</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>153.368848786083</v>
       </c>
     </row>
     <row r="4">
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>162.6749561368113</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>120.0979412432149</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634408</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>175.7821542455729</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>178.3734004266726</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>235.8715405415673</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>58.91428193062396</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>280.9438239338174</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256375</v>
       </c>
       <c r="T9" t="n">
-        <v>190.2932553761562</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.06308666747276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>109.7481210991299</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>168.5023926007956</v>
       </c>
       <c r="V13" t="n">
-        <v>25.73194049497723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142875</v>
       </c>
       <c r="V19" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>50.5268247623009</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238242</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>32.81060261323905</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>148.6282353729474</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>71.56327578339665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.408064079030886</v>
       </c>
     </row>
     <row r="32">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3508,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695557</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.46574022124193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>206.0825446342166</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>125.8152577453148</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.4214638411528</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>840.4214638411528</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835745</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411528</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810723</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528707</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473379</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.518372282384</v>
+        <v>732.9653087398028</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>497.2115152090751</v>
+        <v>442.5112610966762</v>
       </c>
       <c r="C4" t="n">
-        <v>328.2753322811682</v>
+        <v>442.5112610966762</v>
       </c>
       <c r="D4" t="n">
-        <v>328.2753322811682</v>
+        <v>292.3946216843404</v>
       </c>
       <c r="E4" t="n">
-        <v>328.2753322811682</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="F4" t="n">
-        <v>328.2753322811682</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>890.5373824940939</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001379</v>
+        <v>624.1597259269159</v>
       </c>
       <c r="X4" t="n">
-        <v>678.8599800393148</v>
+        <v>624.1597259269159</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.8599800393148</v>
+        <v>624.1597259269159</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571245</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571245</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4558,31 +4558,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571245</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571245</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571245</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>501.322152659818</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528707</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473379</v>
+        <v>877.2977884448399</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.518372282384</v>
+        <v>669.537489679886</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4737,10 +4737,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>816.6014386509063</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>816.6014386509063</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>816.6014386509063</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.6014386509063</v>
+        <v>351.3889017585902</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2229.499872999211</v>
+        <v>1289.665210770288</v>
       </c>
       <c r="C8" t="n">
-        <v>1860.5373560588</v>
+        <v>1289.665210770288</v>
       </c>
       <c r="D8" t="n">
-        <v>1502.271657452049</v>
+        <v>1230.155835082789</v>
       </c>
       <c r="E8" t="n">
-        <v>1116.483404853805</v>
+        <v>844.3675824845445</v>
       </c>
       <c r="F8" t="n">
-        <v>705.4975000641973</v>
+        <v>433.3816776949369</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>421.7158597270081</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607407</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045913</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342782</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342782</v>
+        <v>1973.496753383973</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999211</v>
+        <v>1642.433866040402</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999211</v>
+        <v>1289.665210770288</v>
       </c>
       <c r="X8" t="n">
-        <v>2229.499872999211</v>
+        <v>1289.665210770288</v>
       </c>
       <c r="Y8" t="n">
-        <v>2229.499872999211</v>
+        <v>1289.665210770288</v>
       </c>
     </row>
     <row r="9">
@@ -4877,40 +4877,40 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148178</v>
+        <v>482.1680661379752</v>
       </c>
       <c r="L9" t="n">
-        <v>592.621737748299</v>
+        <v>776.7040495714559</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287028</v>
+        <v>1139.770518045756</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471866</v>
+        <v>1526.854920518325</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459255</v>
+        <v>1858.741730505713</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.05522988888</v>
+        <v>2421.055229888875</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2536.27262844262</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
         <v>2232.610870780833</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2368923627273</v>
+        <v>833.054243487711</v>
       </c>
       <c r="C10" t="n">
-        <v>292.3007094348204</v>
+        <v>664.1180605598041</v>
       </c>
       <c r="D10" t="n">
-        <v>142.1840700224847</v>
+        <v>514.0014211474684</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685564</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685564</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380142</v>
+        <v>76.63468308380119</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676566</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368917</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904032</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271475</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234515</v>
+        <v>1346.3519754404</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363364972</v>
+        <v>1235.495287461481</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.885357192967</v>
+        <v>1014.702708317951</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263523</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356158</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>779.61433792328</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408869</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429765</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.51492517227</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.09775513531</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237292</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093762</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142287011</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>748.5648313007943</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993919</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956958</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058941</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058941</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,31 +5971,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1024.063349920562</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>855.1271669926552</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>705.0105275803195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>557.0974339979264</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6666,7 +6666,7 @@
         <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.711814750802</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,16 +7417,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.4712640439268</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5350811160199</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>444.7013164925216</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658823</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>185.9417291143012</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004318</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538076</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="V13" t="n">
-        <v>226.4057028288508</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>104.8770068749566</v>
       </c>
       <c r="V19" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>98.08864825591147</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>18.61858572568039</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.8577722395346</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>211.1765892730639</v>
       </c>
     </row>
     <row r="32">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>80.44045370237444</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.70888054695402</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
@@ -26322,37 +26322,37 @@
         <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580785</v>
+        <v>390680.0076580774</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606936</v>
+        <v>507909.232060695</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101754</v>
+        <v>95270.23779101725</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608932</v>
+        <v>138058.0537608936</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.14432176893</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567884</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-376792.4227279514</v>
+        <v>-376792.4227279512</v>
       </c>
       <c r="C6" t="n">
-        <v>303295.5578632417</v>
+        <v>303295.5578632416</v>
       </c>
       <c r="D6" t="n">
-        <v>-5859.601596438501</v>
+        <v>-5859.601596437671</v>
       </c>
       <c r="E6" t="n">
-        <v>-13966.33569322196</v>
+        <v>-13653.69436430196</v>
       </c>
       <c r="F6" t="n">
-        <v>493942.8963674712</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="G6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963924</v>
       </c>
       <c r="H6" t="n">
-        <v>493942.8963674716</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="I6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="J6" t="n">
-        <v>424943.741948357</v>
+        <v>425256.3832772782</v>
       </c>
       <c r="K6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="L6" t="n">
-        <v>398672.6585764542</v>
+        <v>398985.299905375</v>
       </c>
       <c r="M6" t="n">
-        <v>361224.9206720024</v>
+        <v>361537.5620009229</v>
       </c>
       <c r="N6" t="n">
-        <v>493942.8963674715</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="O6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="P6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963924</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627826</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856955</v>
+        <v>640.1406900856942</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933042</v>
+        <v>319.6474457933033</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788912</v>
+        <v>434.2730407788924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>199.1204859096805</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>152.4884436845404</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.21613438642653</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>52.31384699122134</v>
       </c>
     </row>
     <row r="4">
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>89.46268718701666</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>105.6117141458222</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27675,13 +27675,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.672003599508</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642653</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>29.99083095790462</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.458579755264651</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>16.2661027822607</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>295.768759690059</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>130.6053358544321</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164536444</v>
       </c>
       <c r="T9" t="n">
-        <v>1.776449164531471</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.37087597909641</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>115.9615342899072</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29018,7 +29018,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885555</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954667</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763188</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354928</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359937</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230789</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983019</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026267</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617164</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152212</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133933</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307411</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942748</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865033</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958076</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705669</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313382</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655055</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.749171808721</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091023</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430323</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797633</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234284</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127579</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758577</v>
+        <v>372.4033415901585</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772537</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401299</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856955</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074637</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804285</v>
+        <v>567.9934337203654</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783569</v>
+        <v>24.53548676783555</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873311</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
